--- a/faq.xlsx
+++ b/faq.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28820"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRONY\YandexDisk\mbot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stas\Desktop\mbot-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F35E3A-F658-4EF7-9699-CA3AC7B7A37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{36EAF53C-D5E9-479B-AB23-79847D2BDF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12630" yWindow="1275" windowWidth="38700" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27750" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="417">
   <si>
     <t>question</t>
   </si>
@@ -794,12 +790,6 @@
     <t>Перезагрузите устройство или очистите память командой @PIN:bboxclear.</t>
   </si>
   <si>
-    <t>Как установить период записи в память?</t>
-  </si>
-  <si>
-    <t>Период записи фиксирован 1 мин и не настраивается.</t>
-  </si>
-  <si>
     <t>Можно ли использовать устройство на прицепах?</t>
   </si>
   <si>
@@ -905,21 +895,12 @@
     <t>Как проверить цепь питания?</t>
   </si>
   <si>
-    <t>Измерьте напряжение на контакте «Питание» разъема XP1.</t>
-  </si>
-  <si>
     <t>Можно ли использовать устройтво в автобусах?</t>
   </si>
   <si>
     <t>Да, категория M поддерживается.</t>
   </si>
   <si>
-    <t>Как настроить резервный сервер?</t>
-  </si>
-  <si>
-    <t>В настройках сервера укажите второй или третий адрес с off-&gt;on.</t>
-  </si>
-  <si>
     <t>Как проверить антенны на исправность?</t>
   </si>
   <si>
@@ -950,24 +931,9 @@
     <t>В ответе на @PIN:info? смотрите параметр ext (напряжение батареи).</t>
   </si>
   <si>
-    <t>Как проверить направление движения?</t>
-  </si>
-  <si>
-    <t>В ответе на @PIN:info? смотрите put angle или путевой угол.</t>
-  </si>
-  <si>
     <t>Как выбрать место для установки основного блока?</t>
   </si>
   <si>
-    <t>Устанавливайте блок на жёсткую металлическую поверхность внутри кабины, вдали от нагревательных элементов и без вибрационных пиков.</t>
-  </si>
-  <si>
-    <t>Какой минимальный зазор нужен для прохода кабелей?</t>
-  </si>
-  <si>
-    <t>Оставляйте не менее 30 мм свободного пространства под жгутом, чтобы избежать пережатия и механического износа.</t>
-  </si>
-  <si>
     <t>Как правильно закрепить кабельный жгут к корпусу?</t>
   </si>
   <si>
@@ -980,12 +946,6 @@
     <t>Рекомендуются нержавеющие винты М4 длиной 12–16 мм с шайбами и пружинными гроверами для антивибрационной защиты.</t>
   </si>
   <si>
-    <t>Как обеспечить герметичность разъёмов?</t>
-  </si>
-  <si>
-    <t>Перед установкой обработайте резиновые уплотнители жидким герметиком RTV и плотно соедините кабели, проверив отсутствие щелей.</t>
-  </si>
-  <si>
     <t>Какой момент затяжки допустим для крепёжных винтов?</t>
   </si>
   <si>
@@ -1013,33 +973,15 @@
     <t>Какой расходный материал нужен для монтажа кабелей?</t>
   </si>
   <si>
-    <t>Пластиковые стяжки, изоляционная лента (ПВХ), антифрикционные втулки и резиновые прокладки для защиты от вибрации.</t>
-  </si>
-  <si>
-    <t>Как проверить правильность подключения питания?</t>
-  </si>
-  <si>
     <t>Измерьте напряжение на контактах «Питание» и «Общий» жгута — должно быть 12/24 В ±10 %.</t>
   </si>
   <si>
     <t>Как убедиться в корректном подключении SIM-карты?</t>
   </si>
   <si>
-    <t>После установки SIM-карты перезапустите устройство и проверьте в «Конфигураторе» наличие связи; зелёный индикатор должен загореться.</t>
-  </si>
-  <si>
-    <t>Как защитить соединения от коррозии?</t>
-  </si>
-  <si>
     <t>Покройте контакты разъёмов тонким слоем диэлектрической смазки или спрея для электроники.</t>
   </si>
   <si>
-    <t>Как избежать путаницы при маркировке кабелей?</t>
-  </si>
-  <si>
-    <t>Используйте цветные термоусадочные метки с нанесёнными номерами контактов на обоих концах жгута.</t>
-  </si>
-  <si>
     <t>Как проверить работоспособность кнопки SOS после монтажа?</t>
   </si>
   <si>
@@ -1049,33 +991,12 @@
     <t>Как проконтролировать качество соединения CAN-шины?</t>
   </si>
   <si>
-    <t>Используйте осциллограф: на линиях CAN-H и CAN-L сигнал должен быть дифференциальным и соответствовать уровню ±2,5 В.</t>
-  </si>
-  <si>
     <t>Как надежно заизолировать срезанные концы проводов?</t>
   </si>
   <si>
-    <t>Обработайте обжатыми наконечниками и термоусадкой, дополнительно зафиксируйте ПВХ-лентой.</t>
-  </si>
-  <si>
     <t>Как проверить полный цикл передачи данных после установки?</t>
   </si>
   <si>
-    <t>В «Конфигураторе» выполните тест «Отправить тестовое событие» и убедитесь в его появлении на сервере мониторинга.</t>
-  </si>
-  <si>
-    <t>Как закрепить жгут возле моторного отсека?</t>
-  </si>
-  <si>
-    <t>Используйте металлические хомуты с виброизолирующими вставками и крепите на штатные проушины кузова.</t>
-  </si>
-  <si>
-    <t>Как выполнять обжимку 1-Wire проводов?</t>
-  </si>
-  <si>
-    <t>Применяйте высококачественные гильзы и специализированный инструмент для AWG 22–24, обеспечивая плотный контакт.</t>
-  </si>
-  <si>
     <t>Как оформить защиту от перелома жгута на стыках?</t>
   </si>
   <si>
@@ -1097,15 +1018,6 @@
     <t>Как проверить контакт «Зажигание» при установке?</t>
   </si>
   <si>
-    <t>Измерьте логический уровень при включенном и выключенном зажигании — переключение должно быть чётким.</t>
-  </si>
-  <si>
-    <t>Как установить модуль интерфейса пользователя (индикаторы)?</t>
-  </si>
-  <si>
-    <t>Выньте плату, установите модуль в посадочное место передней панели и зафиксируйте защёлками.</t>
-  </si>
-  <si>
     <t>Как обезопасить установку от кражи устройства?</t>
   </si>
   <si>
@@ -1121,15 +1033,9 @@
     <t>Как проверить работоспособность акселерометра после монтажа?</t>
   </si>
   <si>
-    <t>В «Конфигураторе» активируйте вывод акселерометрических данных и слегка встряхните корпус — значения по осям должны изменяться.</t>
-  </si>
-  <si>
     <t>Как защитить устройство от перегрева при монтаже в тесных нишах?</t>
   </si>
   <si>
-    <t>Оставьте вокруг блока не менее 20 мм воздуха для циркуляции и не закрывайте вентиляционные отверстия.</t>
-  </si>
-  <si>
     <t>Как убедиться, что резервная SIM активна?</t>
   </si>
   <si>
@@ -1172,18 +1078,12 @@
     <t>Используйте мультиметр в режиме «прозвонки» между всеми жилами и «Общим» — коротких замыканий не должно быть.</t>
   </si>
   <si>
-    <t>Как предотвратить повреждение антенны ГНСС при мойке ТС?</t>
-  </si>
-  <si>
     <t>Снимайте антенну перед мойкой или накрывайте её защитным колпаком.</t>
   </si>
   <si>
     <t>Как проложить жгут в салоне, чтобы не мешал пассажирам?</t>
   </si>
   <si>
-    <t>Прокладывайте вдоль порогов и под ковриками, закрепляя в штатных точках пластиковыми клипсами.</t>
-  </si>
-  <si>
     <t>Как проверить работу голосовой связи на месте установки?</t>
   </si>
   <si>
@@ -1193,51 +1093,27 @@
     <t>Что делать, если устройство не запускается после монтажа?</t>
   </si>
   <si>
-    <t>Проверьте питание, убедитесь в отсутствии обрывов и коротких замыканий в жгуте.</t>
-  </si>
-  <si>
     <t>Как оценить качество приёма GNSS-сигнала?</t>
   </si>
   <si>
-    <t>В «Конфигураторе» смотрите sat inuse — не менее 6 спутников для устойчивого трекинга.</t>
-  </si>
-  <si>
     <t>Как прокладывать жгут в моторном отсеке вдоль штатных жгутов?</t>
   </si>
   <si>
-    <t>Используйте наручные хомуты и антивибрационные прокладки, не пересекайте силовые пучки двигателя.</t>
-  </si>
-  <si>
     <t>Как убедиться в правильности работы CAN-шины?</t>
   </si>
   <si>
-    <t>В «Конфигураторе» включите монитор CAN1/CAN2 — должны появляться сообщения от ЭБУ ТС.</t>
-  </si>
-  <si>
     <t>Как защитить провода от химических реагентов?</t>
   </si>
   <si>
     <t>Применяйте химически стойкие гофры и покрытия, устойчивые к топливу и реагентам.</t>
   </si>
   <si>
-    <t>Как вывести кабель 1-Wire к внешнему датчику?</t>
-  </si>
-  <si>
-    <t>Используйте экранированный кабель AWG 22, подключите экран к «Общему», оставаясь в пределах 3 м.</t>
-  </si>
-  <si>
     <t>Как проверить работу резервного АКБ?</t>
   </si>
   <si>
     <t>Отключите питание и проверьте, что зелёный диод продолжает мигать при передаче данных.</t>
   </si>
   <si>
-    <t>Как настроить автозапуск «Конфигуратора» при подключении USB?</t>
-  </si>
-  <si>
-    <t>В настройках ПО установите флаг «Автозапуск при подключении USB».</t>
-  </si>
-  <si>
     <t>Как экранировать кабели в моторном отсеке?</t>
   </si>
   <si>
@@ -1254,6 +1130,461 @@
   </si>
   <si>
     <t>Используйте заводские болты кузова, зачистив краску до металла, и прижмите «Общий» жгута.</t>
+  </si>
+  <si>
+    <t>как отправить по гарантии терминал ACH, при подключении питания один раз все лампочки моргают и все, так же не подключается к конфигуратору</t>
+  </si>
+  <si>
+    <t>Доброе утро.
+Методы отправки устройств по гарантии описаны на нашем сайте: https://vega-stolitsa.ru/support/
+Перед отправкой, пожалуйста, проверьте:
+Подано ли на терминал стабильное питание в диапазоне 9–30 В.
+При первом включении устройству может потребоваться 10–15 минут для первичной инициализации.
+Используется ли исправный и качественный USB-кабель при подключении к ПК.
+Установлена ли последняя версия конфигуратора и драйверов доступная на нашем сайте.
+Если после этих проверок устройство всё равно не запускается и не выходит на связь, отправляйте его на рекламацию. адрес для отправки указан в разделе контакты: https://vega-stolitsa.ru/contacts/ (г. Москва, 5-я Магистральная ул., 10А, этаж 2)</t>
+  </si>
+  <si>
+    <t>В «Конфигураторе» включите монитор / сканер CAN1/CAN2 — должны появляться сообщения от ЭБУ ТС.</t>
+  </si>
+  <si>
+    <t>Используйте  хомуты и антивибрационные прокладки, не пересекайте силовые пучки двигателя.</t>
+  </si>
+  <si>
+    <t>В «Конфигураторе» смотритенавигация =&gt; расширеные =&gt; используемыхспутников — не менее 6 спутников для устойчивого трекинга.</t>
+  </si>
+  <si>
+    <t>Проверьте питание, убедитесь в отсутствии обрывов и коротких замыканий в жгуте, целосности предохранителя , достаточном диапазоне питания 9-30 вольт.</t>
+  </si>
+  <si>
+    <t>Прокладывайте вдоль порогов и под ковриками, закрепляя в штатных точках пластиковыми клипсами, хомутами.</t>
+  </si>
+  <si>
+    <t>Как предотвратить повреждение внешней антенны ГНСС при мойке ТС?</t>
+  </si>
+  <si>
+    <t>Оставьте вокруг блока не менее 20 мм воздуха для циркуляции и неустанавливайте устройство в близи воздуховодов и других накреваемых элементов ТС</t>
+  </si>
+  <si>
+    <t>В «Конфигураторе» активируйте вывод акселерометрических данных и слегка встряхните корпус — значения по осям должны изменяться в вашей системе мониторинга.</t>
+  </si>
+  <si>
+    <t>Измерьте логический уровень при включенном и выключенном зажигании — переключение должно быть чётким, в по конфигуратора долно срабатывать зажигание (Состояние=&gt;входы/выходы =&gt; наийти в списке индикацию зажигания и убедится в его переключении).</t>
+  </si>
+  <si>
+    <t>В «Конфигураторе» выполните тест «Отправить тестовое событие» к примеру настроить передачу данных по изменению какого либо выхода и в разделе "Состояние" =&gt; "входы/выходы" включить и выключить его и убедитесь в его появлении на сервере мониторинга.</t>
+  </si>
+  <si>
+    <t>Обработайте обжатыми наконечниками и термоусадкой,  зафиксируйте изолентой.</t>
+  </si>
+  <si>
+    <t>Используйте осциллограф/мультиметр: на линиях CAN-H и CAN-L сигнал должен быть дифференциальным и соответствовать уровню ±2,5 В.</t>
+  </si>
+  <si>
+    <t>Как защитить контакты от коррозии?</t>
+  </si>
+  <si>
+    <t>После установки SIM-карты перезапустите устройство и проверьте в «Конфигураторе» наличие связи; зелёный индикатор должен загореться а в разделе Состояние=&gt;Система в строке ICCID SIM №# определятся ее номер ICCID.</t>
+  </si>
+  <si>
+    <t>Как проверить правильность подключения питания на ТС?</t>
+  </si>
+  <si>
+    <t>Пластиковые стяжки, изоляционная лента, обжимные гильзы.</t>
+  </si>
+  <si>
+    <t>Устанавливайте блок на жёсткую  поверхность внутри кабины, вдали от нагревательных элементов и без вибрационных пиков.</t>
+  </si>
+  <si>
+    <t>Как настроить резервный , дополнительный сервер?</t>
+  </si>
+  <si>
+    <t>В настройках сервера укажите второй или третий адрес, укажите требуемый протокол</t>
+  </si>
+  <si>
+    <t>Измерьте напряжение на контакте «Питание» разъема XP2.</t>
+  </si>
+  <si>
+    <t>В каком формате указать адрес</t>
+  </si>
+  <si>
+    <t>Как прописать адрес сервера Как правильно прописать адрес сервера в терминале VEGA ASN?</t>
+  </si>
+  <si>
+    <t>Ответ:
+Адрес сервера указывается в формате:
+@PIN:serverY:addr:port&amp;protocol&amp;period&amp;terminal_addr
+Где:
+PIN — PIN-код устройства (по умолчанию 2222, если не меняли).
+Y — номер сервера (1–4).
+addr — адрес сервера (можно указать IP или доменное имя).
+port — порт сервера.
+protocol — протокол передачи (wcombine, wips, egts и др.).
+period — период выхода на связь (0 для постоянной связи).
+terminal_addr — ID устройства (обычно 0, если не используется NDTP/EGTS).
+Пример (Wialon Combine):
+@2222:server3:193.193.165.165:20332&amp;wcombine&amp;0&amp;0
+Адрес можно прописать:
+через SMS (как в примере выше),
+через конфигуратор — в разделе «Соединение → Настройки серверов мониторинга».</t>
+  </si>
+  <si>
+    <t>addr:port пример 193.193.165.165:20332</t>
+  </si>
+  <si>
+    <t>Общий формат команды @PIN:команда, где PIN это PIN-код устройства из четырех цифр (В случае ввода неправильного PIN-кода блок ничего не отвечает отправителю
+). Также есть две команды информационного типа, в ответ на которые приходит SMS-сообщение с информацией о настройках блока.
+Команда
+Формат команды
+Пример
+nosleep - не переходить в спящий режим
+@PIN:nosleep
+@5555:nosleep
+____________
+PIN-код – 5555
+reboot - рестарт блока
+@PIN:reboot
+@3333:reboot
+____________
+PIN-код – 3333
+rebootgnss - холодный старт GNSS приемника
+@ PIN:rebootgnss
+@7767: rebootgnss ____________
+PIN-код – 7767
+tofactory - сброс к заводским настройкам
+@PIN:tofactory
+@1234:tofactory
+____________
+PIN-код – 1234
+bboxclear – очистить чёрный ящик
+@PIN:bboxclear
+@1234:bboxclear
+____________
+PIN-код - 1234
+setout – установить состояние выхода
+@PIN:setoutY=Z
+____________
+Y – номер выхода
+Z – состояние (0 или 1)
+@4321:setout2=1
+____________
+PIN-код – 4321
+Номер выхода – 2
+Состояние - 1
+setextout – установить состояние выхода блока расширения
+@PIN:setextoutY=Z
+____________
+Y – номер выхода блока расширения
+Z – состояние (0 или 1)
+@4444:setextout8=0
+____________
+PIN-код – 4444
+Номер выхода блока расширения – 8
+Состояние – 0
+server - установить адрес сервера
+@PIN:serverY:addr:port&amp;protocol&amp;period&amp;terminal_addr
+____________
+Y – номер сервера
+addr – адрес сервера
+port – порт сервера
+protocol – тип протокола:
+off – выключен
+vega – инженерный сервер
+egts – EGTS
+egts_l1 – EGTS Light 1
+egts_l2 – EGTS Light 2
+wcombine – Wialon Combine
+wips – Wialon IPS
+ndtp – NDTP
+period – период выхода на связь с сервером
+terminal_addr – адрес устройства для NDTP либо ID устройства для протокола EGTS
+@2222:server3:193.193.165.165:20332&amp;wips&amp;0&amp;90008
+____________
+PIN-код – 2222
+Номер сервера – 3
+Адрес сервера – 193.193.165.165
+Порт сервера – 20332
+Протокол обмена – Wialon IPS
+Период выхода на связь – 0 (постоянно на связи)
+Адрес NDTP либо ID устройства EGTS – 90008
+setapn - установить точку доступа
+@PIN:setapn:apn&amp;user&amp;pass
+____________
+apn – APN точки доступа
+user – имя пользователя
+pass – пароль
+@1234:setapn:internet.beeline.ru&amp; beeline&amp; beeline
+____________
+PIN-код – 1234
+APN – internet.beeline.ru
+Имя пользователя – beeline
+Пароль – beeline
+info? - запросить текущее состояние блока
+@PIN:info?
+@1234:info?
+____________
+PIN-код – 1234
+server? - запросить настройки серверов мониторинга
+@PIN:server?
+@4444:server?
+____________
+PIN-код – 4444
+runcanscript – запустить выполнение CAN-скрипта номер Х
+@PIN:runcanscriptX
+Х – номер CAN-скрипта, который нужно выполнить
+@4444:runcanscript3
+____________
+PIN-код – 4444
+CAN-скрипт номер 3
+t:unixtime – задать время жизни команды
+@PIN:XXXX/t:unixtime
+ХXXX – тело команды, для которой нужно задать время жизни
+unixtime – время в UTC, по наступлению которого команда не будет выполняться, даже если в это время придет SMS с ней. Например, мы отправили SMS-команду на перезагрузку блока в 14.00 и задали время жизни до 14.10, таким образом, если команда придет на блок с 14.00 до 14.10, то она выполнится как обычно, а если SMS задержится, не будет сразу доставлено и т.д., и команда придет в 14.15, то она выполняться не будет – время жизни истекло.
+По истечении времени придет сообщение "Execution time has expired" - время жизни команды истекло
+@4444: reboot/t: 1577196600
+____________
+PIN-код – 4444
+Команда – перезагрузить блок
+Время жизни команды до 14:10:00 24.12.2019
+changesim – сменить текущую SIM-карту
+@PIN:changesim
+@4444:changesim
+____________
+PIN-код – 4444
+changesim1 – сменить SIM-карту на первую
+@PIN:changesim1
+@4444:changesim1
+____________
+PIN-код – 4444
+changesim2– сменить SIM-карту на вторую
+@PIN:changesim2
+Примеры ответов:
+changesim:2 ok – команда выполнена успешно;
+changesim:2 err, already in use – SIM2 уже используется.
+@4444:changesim2
+____________
+PIN-код – 4444
+При запросе текущего состояния блока приходит сообщение со следующим содержанием:
+Вега МТ X CAN v3.10 0.4b – название устройства и версия прошивки ПО
+imei: 355217043382910 – номер IMEI устройства
+lat: 55.1173, lon: 37,9475, - координаты устройства (широта и долгота)
+sat inview: 22, - количество видимых спутников
+sat inuse: 14, - количество используемых спутников
+valid: 1 – валидность определенных координат (0 – нет, 1 – да)
+ign: 0, - зажигание (0 – нет, 1 – да)
+acc: 4.1, ext: 12.1, - напряжение встроенного аккумулятора и бортовой сети
+temp: 19,5, - температура окружающей среды
+move: 0 – движение (0 – нет, 1 – да)
+black box: 0, 4, 0, 0 – количество сообщений в черных ящиках по порядку в 1-м, 2-м, 3-м и 4-м.
+При запросе настроек серверов мониторинга приходит сообщение со следующим содержанием:
+server1:
+193.193.165.144:20333&amp;wips&amp;0&amp;0
+server2:
+46.183.183.4:16122&amp;egts&amp;15&amp;43382912
+server3:
+193.193.154.154:20453&amp;off&amp;0&amp;0
+server4:
+37.194.197.213:5604&amp;vega&amp;0&amp;0
+Здесь по порядку указаны – адрес сервера: порт &amp; протокол (если включен) либо off (если обмен данными с этим сервером выключен) &amp; период выхода на связь в минутах &amp; адрес устройства для NDTP либо ID устройства для протокола EGTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">список смс команд: </t>
+  </si>
+  <si>
+    <t>как обновить прошивку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Обновление прошивки.
+Через программу «Конфигуратор» можно обновить прошивку устройства (дистанционно или по USB), используя соответствующий файл. Для этого нажмите кнопку «Обновление» в левом нижнем углу окна – появится диалоговое окно с предложением выбрать файл с новой версией прошивки. Выберите заранее подготовленный фай на компьютере нажмите «Ок» - выполнится обновление прошивки устройства.
+Далее необходимо выбрать файл с прошивкой в формате «».vbf
+Не выключайте устройство во время обновления ПО
+Дождитесь окончания процесса обновления.
+После чего устройство буде отключено от программы конфигуратора и перезагружено, данный процесс также является частью «обновления ПО» во избежание ошибок во время обновления дождитесь полного рестарта устройства
+Теперь можно снова подключатся к устройству и производить дальнейшее его конфигурирования
+Не выключайте устройство во время обновления ПО
+</t>
+  </si>
+  <si>
+    <t>как подключится удаленно к устройству</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)       Нажать кнопку «Соединиться» в конфигураторе.
+2)       Выбрать соединение по TCP (без авторизации) и нажать кнопку «Соединиться».
+3)       Ввести IMEI вашего устройства, выбрать его в списке и нажать кнопку «Подключиться».
+4)       Если устройство защищено паролем — ввести его и нажать OK (PIN по умолчанию: 1234).
+Далее можно производить настройки и манипуляции с блоком как обычно.
+Внимание!
+Если в устройстве установлена только SIM-карта АО «ГЛОНАСС», перед удаленным подключением необходимо отправить SMS-команду на абонентский номер SIM-карты для смены APN с era на internet: @1234:setapn:internet&amp;&amp;
+Также учтите, что на SIM-картах АО «ГЛОНАСС» установлен запрет на отправку СМС, поэтому устройство не ответит на сообщения.
+ </t>
+  </si>
+  <si>
+    <t>Удаленное подключение</t>
+  </si>
+  <si>
+    <t>Добрый день!
+Для удалённого подключения к терминалу необходимо:
+1.     Отправить SMS-команду на номер SIM-карты устройства для установки точки доступа (APN):
+2.     @1234:setapn:internet&amp;&amp;
+— где 1234 — PIN-код устройства по умолчанию.
+Если вы ранее изменяли PIN, используйте свой актуальный код.
+3.     После получения отчёта о доставке рекомендуем перезапустить устройство SMS-командой:
+4.     @1234:reboot
+5.     Если ранее вы отключали или изменяли настройки сервера №4, необходимо его повторно активировать следующей командой:
+6.     @1234:server4:89.189.183.233:5604&amp;vega&amp;0&amp;0
+7.     Обратите 0внимание:
+Если в используемом тарифном плане не активированы исходящие SMS, терминал не сможет отправить ответ, и проверить выполнение команд можно будет только по факту — например, через некоторое время по появлению данных на сервере.</t>
+  </si>
+  <si>
+    <t>не выходит на связь сим АО ГЛОНАСС</t>
+  </si>
+  <si>
+    <t>Инструкция по устранению неисправностей устройства
+1. Индикация светодиодов
+Синий светодиод мигает 1 раз в секунду
+– Идёт определение местоположения (GPS/ГЛОНАСС).
+Зелёный светодиод мигает
+– Идёт обмен данными по сети GSM.
+2. Предварительные проверки
+1.     Проверить подключение провода зажигания
+o    Убедиться, что жёлтый провод АКК правильно подключён к сигналу «зажигание» в ТС.
+2.     Проверить подключение антенн
+o    Антенна GPS/ГЛОНАСС должна иметь обзор «небо»: без препятствий из металла и без экранирующих конструкций.
+o    Антенна GSM должна быть расположена так, чтобы обеспечивать стабильный приём сети (без металлических преград и в зоне покрытия оператора).
+3.     Убедиться, что ТС не находится в зоне РЭБ (глушения)
+o    Проверить, нет ли поблизости источников активного подавления (военных радиоэлектронных средств и прочих устройств, создающих сильные помехи).
+o    Если возможно, переместить ТС в зону с лучшим приёмом GPS и GSM.
+3. Дальнейшие действия (если проверенное выше не помогло)
+1.     Обновить прошивку устройства
+o    Использовать последнюю версию ПО, рекомендованную для вашей модели.
+2.     Загрузить конфигурацию в соответствии с действующим постановлением
+o    Убедиться, что в настройках устройства выбран и применён файл конфигурации, соответствующий нормам (ПП № 1378 или № 2216, в зависимости от назначения оборудования).
+3.     Отключить фильтрацию трека по HDOP
+1.                 Открыть меню «Настройки» → вкладка «Трек».
+2.                 Снять галочку «Фильтрация трека по HDOP».
+3.                 Сохранить изменения и перезапустить цикл приёма/передачи данных.
+Если после выполнения всех шагов проблема сохраняется, обратитесь в техническую поддержку с указанием:
+Модели и серийного номера устройства
+Версии прошивки и конфигурационного файла
+Снимков показаний светодиодов в момент неисправности
+Сведений об окружающей среде (наличие металлических препятствий, возможная зона РЭБ)
+Это позволит ускорить диагностику и подбор оптимального решения.</t>
+  </si>
+  <si>
+    <t>Не подключили зажигание Работает неправильно</t>
+  </si>
+  <si>
+    <t>Если вы не подключаете зажигание, то нужно перенастроить блок для определения зажигания по напряжению питания. Это можно сделать на вкладке «Настройки → Входы/Выходы → Датчик зажигания»: поставить галочку в поле «Использовать для этого датчика напряжение бортовой сети» и задать соответствующие значения напряжений. Подключение зажигания напрямую влияет на периодичность передачи данных.
+Рекомендуем прошить устройство и загрузить в него стандартные настройки для 2216. Инструкции, ПО конфигуратора, файлы прошивки и конфигурации находятся в приложенном архиве.
+В случае, если у вас нет возможности физически…
+Мой вариант ответа (сохранён смысл исходного сообщения):
+Добрый день!
+1.     Чтобы блок определял зажигание без подключения жёлтого провода, зайдите в Конфигуратор:
+o    В разделе Настройки → Входы/Выходы → Датчик зажигания
+o    Активируйте опцию «Использовать напряжение бортовой сети»
+o    Установите минимальное и максимальное значения напряжения.
+2.     Подключение провода зажигания напрямую влияет на периодичность отправки координат. Если провод не подключён, настройка по напряжению заменяет эту функцию.
+3.     Для восстановления стандартных параметров рекомендуем:
+o    Прошить устройство по инструкции для модели 2216.
+o    В архиве вместе с ПО Конфигуратора вы найдёте все необходимые файлы прошивки и конфигурации.
+Если вы не можете физически прошить устройство, пожалуйста, сообщите — предложим альтернативный способ или дистанционную помощь.</t>
+  </si>
+  <si>
+    <t>Нету датчиков т я  ретранслирую из егтс V1 в другой протокол Ретрансляция в Wialon</t>
+  </si>
+  <si>
+    <t>При ретрансляции через АСМ ЭРА‑ГЛОНАСС устройство передаёт только координаты и базовые данные (через устаревший EGTS), поэтому данные с ДУТ и кан-шины не доходит. Так устроен процесс парсинга у них.
+Чтобы наладить передачу показаний ДУТ и зажигания, настройте ваш сервер как второй сервер через удобный вам протокол (например, Wialon‑IPS), а ретрансляцию в ЭРА‑ГЛОНАСС оставьте только как резерв — так вы получите и полноту данных, и соответствие регламентам.
+Обратите внимание: мы не консультируем работу и внутренний парсинг АСМ ЭРА‑ГЛОНАСС.</t>
+  </si>
+  <si>
+    <t>как сбросить  устройство, перепрошить и загрусить файл конфигурации</t>
+  </si>
+  <si>
+    <t>Подключите устройство к постоянному источнику питания, убедитесь что внутренняя акб подключена, зажигание включено или настроено корректным для вашего способа подключения образом и активно . 
+выполните следующие шаги:
+1.     Сброс и очистка:
+o    Через Vega Stolitsa Configurator: выполните «Состояние» =&gt; «Управление блоком» =&gt; «Сброс к заводским настройкам». (Происходит долго может занять около 10 минут) дождитесь сообщения о выполнении данной операции, в случае ошибки сделайте ее скриншот.
+2.     Прошивка:
+o    Залейте актуальную прошивку, дождитесь сообщения о выполнении данной операции, в случае ошибки сделайте ее скриншот.
+3.     Загрузка конфигурации:
+o    Подключите по USB, загрузите файл настроек, сохраните и дождитесь сообщения об успешной записи. в случае ошибки сделайте ее скриншот.
+o    Выполните «Состояние» =&gt; «Управление блоком» =&gt; «Рестарт блока».</t>
+  </si>
+  <si>
+    <t>блок АСН, мне нужно поставить туда сим карту АО ГЛОНАСС, нужно будет настраивать или он уже настроен на работу с этими симками</t>
+  </si>
+  <si>
+    <t>Устройства АСН отгружаются с предустановленной базовой конфигурацией и готовы к работе с SIM-картами АО «ГЛОНАСС». Дополнительные параметры настраиваются конечным пользователем при необходимости.
+Для выполнения требований ПП 1378/2216 необходимо зарегистрировать оборудование на ресурсах АО «ГЛОНАСС» в соответствии с их инструкциями: https://aoglonass.ru/
+.
+Во вложении направляем актуальные версии конфигуратора, инструкции и стандартные конфигурации для устройств.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Улетает время назад и вперед в 2024 год или наоборот в 1984 год. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как решить проблемму с Замедлением интернета / блокировкой 3g диапазона </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Для корректной работы устройства необходимо:
+Использовать актуальный конфигуратор и ПО. Свежие версии всегда доступны на сайте vega-stolitsa.ru
+ в разделе «Техподдержка и материалы».
+Обновить прошивку устройства и выполнить настройку через новую версию конфигуратора.
+В настройках «Соединение → Настройки синхронизации времени GSM/NTP» установить галочку напротив пункта «Запрет установки времени по GNSS».</t>
+  </si>
+  <si>
+    <t>Для корректной работы устройства необходимо:
+Использовать актуальный конфигуратор и ПО. Свежие версии всегда доступны на сайте vega-stolitsa.ru
+ в разделе «Техподдержка и материалы».
+Обновить прошивку устройства и выполнить настройку через новую версию конфигуратора.
+В настройках "Соединение → Настройки сети → Режим работы модема → сменить с автоматически на 2G"</t>
+  </si>
+  <si>
+    <t>смс доставлено, а настройки не поменялись</t>
+  </si>
+  <si>
+    <t>Почему SMS могла показывать «доставлено», а настройки не поменялись:
+На SIM АО «ГЛОНАСС» часто запрещены исходящие SMS. Устройство в этом случае не вернёт подтверждение и может не применить команду. (См. раздел «SMS» в инструкции.)
+SMS может доходить до сети оператора, но не быть доставлена до устройства, если оно в режиме сна. Тогда команда выполнится только после пробуждения. (См. раздел «Удалённое подключение».)
+Если устройство не в сети, спит или модуль занят, команда не применится сразу. Отчёт об «доставке» в сети оператора не означает, что устройство обработало команду. (См. раздел «SMS».)
+Что нужно сделать прямо сейчас (заказчик / администратор):
+Уточните у оператора по договору, разрешены ли входящие и исходящие SMS для этой SIM.
+Убедитесь, что терминал «проснулся» (включено зажигание или другие триггеры пробуждения). При необходимости перезагрузите устройство командой:
+@1234:reboot
+или подключитесь локально через USB и выполните перезагрузку.
+3. Надёжнее изменить APN через Конфигуратор, локально по USB или удалённо через инженерный сервер. Инструкция по удалённому подключению и порядок действий в Конфигураторе во вложении.
+4. Временная диагностика: вставьте в устройство обычную SIM с поддержкой SMS и данных и повторите команду. Это быстро покажет, где проблема в SIM или в устройстве. Для проверки текущих настроек запросите статусы(используя в устройстве обычную SIM):
+@1234:info?
+@1234:server?</t>
+  </si>
+  <si>
+    <t>на терминале ВЕГА С АСН предустановлен протокол передачи данных ЕГТС и порт 30197?</t>
+  </si>
+  <si>
+    <t>Да, по умолчанию в терминале VEGA-С АСН прописан адрес и порт АСМ АО «ГЛОНАСС» (протокол ЕГТС "10.77.60.254:30197").</t>
+  </si>
+  <si>
+    <t>Подскажите как изменить колличество передаваемых пакетов для уменьшения трафика в глонассе?</t>
+  </si>
+  <si>
+    <t>Добрый день. 
+1. Что проверить в первую очередь (передача данных).
+   1.1. Откройте Конфигуратор → Вкладка «Передача».
+   1.2. Убедитесь, что для датчиков с нестабильным значением (например, ДУТ) не стоит режим «Передавать при изменении» (галочка в третьем столбце).
+   1.3. Проверьте, что для  датчиков не задан слишком маленький «период» передачи. Частая передача (секунды) сильно увеличивает расход трафика и нагрузку на устройство и сервер.
+   1.4. При необходимости временно отключите передачу по изменению для шумных датчиков или переведите их в передачу с периодом с адекватным интервалом.
+2. Настройки трека (что может формировать лишние пакеты).
+   2.1. Откройте Конфигуратор → Вкладка «Трек».
+   2.2. Проверьте «Записывать трек по времени» — не ставьте значение 1 сек при включённом зажигании, если это не требуется. 1 сек = очень много пакетов.
+   2.3. Проверьте «Записывать трек по изменению выбранного датчика» — отключите для датчиков, которые дают частые флуктуации.
+   2.4. Проверьте «Записывать трек по курсу» и «Фильтровать трек по HDOP» — слишком агрессивная фильтрация или слишком мелкие пороги могут ухудшить качество трека.&amp;#x20;
+3. Практические рекомендации по работе в Конфигураторе.
+   3.1. Сначала загрузите текущие настройки с устройства (кнопка «Загрузить»), правьте только актуальную конфигурацию.
+   3.2. После изменений нажмите «Сохранить», затем перезагрузите устройство (Рестарт блока).
+   3.3. Если выгрузка BlackBox идёт слишком большими пакетами — включите «Выгружать ЧЯ по одной телематической записи в пакете» или уменьшите размер пакета. 
+   Убедитесь, пожалуйста, что в конфиге не включена передача шумных датчиков «по изменению», и что в треке не стоит запись каждую секунду — это основная причина большого числа пакетов.</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1425,6 +1756,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1619,15 +1953,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X984"/>
+  <dimension ref="A1:X975"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F211" sqref="F211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="52.7109375" customWidth="1"/>
+    <col min="1" max="1" width="81.42578125" customWidth="1"/>
+    <col min="2" max="2" width="90.5703125" customWidth="1"/>
     <col min="16383" max="16384" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5413,7 +5748,7 @@
       <c r="W126" s="3"/>
       <c r="X126" s="3"/>
     </row>
-    <row r="127" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>253</v>
       </c>
@@ -5443,7 +5778,7 @@
       <c r="W127" s="3"/>
       <c r="X127" s="3"/>
     </row>
-    <row r="128" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>255</v>
       </c>
@@ -5683,7 +6018,7 @@
       <c r="W135" s="3"/>
       <c r="X135" s="3"/>
     </row>
-    <row r="136" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>271</v>
       </c>
@@ -5713,7 +6048,7 @@
       <c r="W136" s="3"/>
       <c r="X136" s="3"/>
     </row>
-    <row r="137" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>273</v>
       </c>
@@ -5773,7 +6108,7 @@
       <c r="W138" s="3"/>
       <c r="X138" s="3"/>
     </row>
-    <row r="139" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>277</v>
       </c>
@@ -5803,7 +6138,7 @@
       <c r="W139" s="3"/>
       <c r="X139" s="3"/>
     </row>
-    <row r="140" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>279</v>
       </c>
@@ -5868,7 +6203,7 @@
         <v>283</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>284</v>
+        <v>384</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -5893,12 +6228,12 @@
       <c r="W142" s="3"/>
       <c r="X142" s="3"/>
     </row>
-    <row r="143" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B143" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>286</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -5923,12 +6258,12 @@
       <c r="W143" s="3"/>
       <c r="X143" s="3"/>
     </row>
-    <row r="144" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
-        <v>287</v>
+        <v>382</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>288</v>
+        <v>383</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -5955,10 +6290,10 @@
     </row>
     <row r="145" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -5983,12 +6318,12 @@
       <c r="W145" s="3"/>
       <c r="X145" s="3"/>
     </row>
-    <row r="146" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -6015,10 +6350,10 @@
     </row>
     <row r="147" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -6045,10 +6380,10 @@
     </row>
     <row r="148" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -6073,12 +6408,12 @@
       <c r="W148" s="3"/>
       <c r="X148" s="3"/>
     </row>
-    <row r="149" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -6103,12 +6438,12 @@
       <c r="W149" s="3"/>
       <c r="X149" s="3"/>
     </row>
-    <row r="150" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>300</v>
+        <v>381</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -6133,12 +6468,12 @@
       <c r="W150" s="3"/>
       <c r="X150" s="3"/>
     </row>
-    <row r="151" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -6163,12 +6498,12 @@
       <c r="W151" s="3"/>
       <c r="X151" s="3"/>
     </row>
-    <row r="152" spans="1:24" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -6193,12 +6528,12 @@
       <c r="W152" s="3"/>
       <c r="X152" s="3"/>
     </row>
-    <row r="153" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -6225,10 +6560,10 @@
     </row>
     <row r="154" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -6255,10 +6590,10 @@
     </row>
     <row r="155" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -6285,10 +6620,10 @@
     </row>
     <row r="156" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -6315,10 +6650,10 @@
     </row>
     <row r="157" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>314</v>
+        <v>380</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -6343,12 +6678,12 @@
       <c r="W157" s="3"/>
       <c r="X157" s="3"/>
     </row>
-    <row r="158" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
-        <v>315</v>
+        <v>379</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -6373,12 +6708,12 @@
       <c r="W158" s="3"/>
       <c r="X158" s="3"/>
     </row>
-    <row r="159" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>318</v>
+        <v>378</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -6405,10 +6740,10 @@
     </row>
     <row r="160" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
-        <v>319</v>
+        <v>377</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -6435,10 +6770,10 @@
     </row>
     <row r="161" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -6463,12 +6798,12 @@
       <c r="W161" s="3"/>
       <c r="X161" s="3"/>
     </row>
-    <row r="162" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -6493,12 +6828,12 @@
       <c r="W162" s="3"/>
       <c r="X162" s="3"/>
     </row>
-    <row r="163" spans="1:24" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -6523,12 +6858,12 @@
       <c r="W163" s="3"/>
       <c r="X163" s="3"/>
     </row>
-    <row r="164" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -6555,10 +6890,10 @@
     </row>
     <row r="165" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -6583,12 +6918,12 @@
       <c r="W165" s="3"/>
       <c r="X165" s="3"/>
     </row>
-    <row r="166" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -6613,12 +6948,12 @@
       <c r="W166" s="3"/>
       <c r="X166" s="3"/>
     </row>
-    <row r="167" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -6643,12 +6978,12 @@
       <c r="W167" s="3"/>
       <c r="X167" s="3"/>
     </row>
-    <row r="168" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" ht="100.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -6673,13 +7008,9 @@
       <c r="W168" s="3"/>
       <c r="X168" s="3"/>
     </row>
-    <row r="169" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>338</v>
-      </c>
+    <row r="169" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="8"/>
+      <c r="B169" s="9"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -6703,12 +7034,12 @@
       <c r="W169" s="3"/>
       <c r="X169" s="3"/>
     </row>
-    <row r="170" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -6733,12 +7064,12 @@
       <c r="W170" s="3"/>
       <c r="X170" s="3"/>
     </row>
-    <row r="171" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -6763,12 +7094,12 @@
       <c r="W171" s="3"/>
       <c r="X171" s="3"/>
     </row>
-    <row r="172" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -6793,12 +7124,12 @@
       <c r="W172" s="3"/>
       <c r="X172" s="3"/>
     </row>
-    <row r="173" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -6823,12 +7154,12 @@
       <c r="W173" s="3"/>
       <c r="X173" s="3"/>
     </row>
-    <row r="174" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -6855,10 +7186,10 @@
     </row>
     <row r="175" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -6885,10 +7216,10 @@
     </row>
     <row r="176" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -6913,12 +7244,12 @@
       <c r="W176" s="3"/>
       <c r="X176" s="3"/>
     </row>
-    <row r="177" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -6945,10 +7276,10 @@
     </row>
     <row r="178" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -6973,12 +7304,12 @@
       <c r="W178" s="3"/>
       <c r="X178" s="3"/>
     </row>
-    <row r="179" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -7005,10 +7336,10 @@
     </row>
     <row r="180" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -7033,12 +7364,12 @@
       <c r="W180" s="3"/>
       <c r="X180" s="3"/>
     </row>
-    <row r="181" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -7065,10 +7396,10 @@
     </row>
     <row r="182" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -7095,10 +7426,10 @@
     </row>
     <row r="183" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -7123,9 +7454,9 @@
       <c r="W183" s="3"/>
       <c r="X183" s="3"/>
     </row>
-    <row r="184" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>368</v>
@@ -7153,12 +7484,12 @@
       <c r="W184" s="3"/>
       <c r="X184" s="3"/>
     </row>
-    <row r="185" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -7183,12 +7514,12 @@
       <c r="W185" s="3"/>
       <c r="X185" s="3"/>
     </row>
-    <row r="186" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -7215,10 +7546,10 @@
     </row>
     <row r="187" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -7245,10 +7576,10 @@
     </row>
     <row r="188" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -7273,13 +7604,9 @@
       <c r="W188" s="3"/>
       <c r="X188" s="3"/>
     </row>
-    <row r="189" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>378</v>
-      </c>
+    <row r="189" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="8"/>
+      <c r="B189" s="9"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -7303,12 +7630,12 @@
       <c r="W189" s="3"/>
       <c r="X189" s="3"/>
     </row>
-    <row r="190" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -7333,13 +7660,9 @@
       <c r="W190" s="3"/>
       <c r="X190" s="3"/>
     </row>
-    <row r="191" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>382</v>
-      </c>
+    <row r="191" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="8"/>
+      <c r="B191" s="9"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -7365,10 +7688,10 @@
     </row>
     <row r="192" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -7393,12 +7716,12 @@
       <c r="W192" s="3"/>
       <c r="X192" s="3"/>
     </row>
-    <row r="193" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -7425,10 +7748,10 @@
     </row>
     <row r="194" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -7453,14 +7776,14 @@
       <c r="W194" s="3"/>
       <c r="X194" s="3"/>
     </row>
-    <row r="195" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C195" s="3"/>
+    <row r="195" spans="1:24" ht="408" x14ac:dyDescent="0.2">
+      <c r="A195" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C195" s="10"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
@@ -7483,14 +7806,14 @@
       <c r="W195" s="3"/>
       <c r="X195" s="3"/>
     </row>
-    <row r="196" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="C196" s="3"/>
+    <row r="196" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A196" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C196" s="10"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
@@ -7513,12 +7836,12 @@
       <c r="W196" s="3"/>
       <c r="X196" s="3"/>
     </row>
-    <row r="197" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>394</v>
+    <row r="197" spans="1:24" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A197" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -7543,12 +7866,12 @@
       <c r="W197" s="3"/>
       <c r="X197" s="3"/>
     </row>
-    <row r="198" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>396</v>
+    <row r="198" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A198" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>389</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -7573,12 +7896,12 @@
       <c r="W198" s="3"/>
       <c r="X198" s="3"/>
     </row>
-    <row r="199" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>398</v>
+    <row r="199" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A199" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -7603,12 +7926,12 @@
       <c r="W199" s="3"/>
       <c r="X199" s="3"/>
     </row>
-    <row r="200" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>400</v>
+    <row r="200" spans="1:24" ht="399" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>394</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -7633,12 +7956,12 @@
       <c r="W200" s="3"/>
       <c r="X200" s="3"/>
     </row>
-    <row r="201" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="B201" s="9" t="s">
-        <v>402</v>
+    <row r="201" spans="1:24" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A201" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>396</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -7663,9 +7986,13 @@
       <c r="W201" s="3"/>
       <c r="X201" s="3"/>
     </row>
-    <row r="202" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
+    <row r="202" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A202" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>398</v>
+      </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -7689,9 +8016,13 @@
       <c r="W202" s="3"/>
       <c r="X202" s="3"/>
     </row>
-    <row r="203" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A203" s="3"/>
-      <c r="B203" s="3"/>
+    <row r="203" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A203" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>400</v>
+      </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -7715,9 +8046,13 @@
       <c r="W203" s="3"/>
       <c r="X203" s="3"/>
     </row>
-    <row r="204" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
+    <row r="204" spans="1:24" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A204" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -7741,9 +8076,13 @@
       <c r="W204" s="3"/>
       <c r="X204" s="3"/>
     </row>
-    <row r="205" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
+    <row r="205" spans="1:24" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A205" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -7767,9 +8106,13 @@
       <c r="W205" s="3"/>
       <c r="X205" s="3"/>
     </row>
-    <row r="206" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A206" s="3"/>
-      <c r="B206" s="3"/>
+    <row r="206" spans="1:24" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A206" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>406</v>
+      </c>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -7793,9 +8136,13 @@
       <c r="W206" s="3"/>
       <c r="X206" s="3"/>
     </row>
-    <row r="207" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A207" s="3"/>
-      <c r="B207" s="3"/>
+    <row r="207" spans="1:24" ht="171" x14ac:dyDescent="0.2">
+      <c r="A207" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -7819,9 +8166,13 @@
       <c r="W207" s="3"/>
       <c r="X207" s="3"/>
     </row>
-    <row r="208" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A208" s="3"/>
-      <c r="B208" s="3"/>
+    <row r="208" spans="1:24" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A208" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>410</v>
+      </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -7845,9 +8196,13 @@
       <c r="W208" s="3"/>
       <c r="X208" s="3"/>
     </row>
-    <row r="209" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A209" s="3"/>
-      <c r="B209" s="3"/>
+    <row r="209" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A209" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>412</v>
+      </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -7871,9 +8226,13 @@
       <c r="W209" s="3"/>
       <c r="X209" s="3"/>
     </row>
-    <row r="210" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
+    <row r="210" spans="1:24" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A210" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>414</v>
+      </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -7897,9 +8256,13 @@
       <c r="W210" s="3"/>
       <c r="X210" s="3"/>
     </row>
-    <row r="211" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
+    <row r="211" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A211" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>416</v>
+      </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -27787,240 +28150,6 @@
       <c r="W975" s="3"/>
       <c r="X975" s="3"/>
     </row>
-    <row r="976" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A976" s="3"/>
-      <c r="B976" s="3"/>
-      <c r="C976" s="3"/>
-      <c r="D976" s="3"/>
-      <c r="E976" s="3"/>
-      <c r="F976" s="3"/>
-      <c r="G976" s="3"/>
-      <c r="H976" s="3"/>
-      <c r="I976" s="3"/>
-      <c r="J976" s="3"/>
-      <c r="K976" s="3"/>
-      <c r="L976" s="3"/>
-      <c r="M976" s="3"/>
-      <c r="N976" s="3"/>
-      <c r="O976" s="3"/>
-      <c r="P976" s="3"/>
-      <c r="Q976" s="3"/>
-      <c r="R976" s="3"/>
-      <c r="S976" s="3"/>
-      <c r="T976" s="3"/>
-      <c r="U976" s="3"/>
-      <c r="V976" s="3"/>
-      <c r="W976" s="3"/>
-      <c r="X976" s="3"/>
-    </row>
-    <row r="977" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A977" s="3"/>
-      <c r="B977" s="3"/>
-      <c r="C977" s="3"/>
-      <c r="D977" s="3"/>
-      <c r="E977" s="3"/>
-      <c r="F977" s="3"/>
-      <c r="G977" s="3"/>
-      <c r="H977" s="3"/>
-      <c r="I977" s="3"/>
-      <c r="J977" s="3"/>
-      <c r="K977" s="3"/>
-      <c r="L977" s="3"/>
-      <c r="M977" s="3"/>
-      <c r="N977" s="3"/>
-      <c r="O977" s="3"/>
-      <c r="P977" s="3"/>
-      <c r="Q977" s="3"/>
-      <c r="R977" s="3"/>
-      <c r="S977" s="3"/>
-      <c r="T977" s="3"/>
-      <c r="U977" s="3"/>
-      <c r="V977" s="3"/>
-      <c r="W977" s="3"/>
-      <c r="X977" s="3"/>
-    </row>
-    <row r="978" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A978" s="3"/>
-      <c r="B978" s="3"/>
-      <c r="C978" s="3"/>
-      <c r="D978" s="3"/>
-      <c r="E978" s="3"/>
-      <c r="F978" s="3"/>
-      <c r="G978" s="3"/>
-      <c r="H978" s="3"/>
-      <c r="I978" s="3"/>
-      <c r="J978" s="3"/>
-      <c r="K978" s="3"/>
-      <c r="L978" s="3"/>
-      <c r="M978" s="3"/>
-      <c r="N978" s="3"/>
-      <c r="O978" s="3"/>
-      <c r="P978" s="3"/>
-      <c r="Q978" s="3"/>
-      <c r="R978" s="3"/>
-      <c r="S978" s="3"/>
-      <c r="T978" s="3"/>
-      <c r="U978" s="3"/>
-      <c r="V978" s="3"/>
-      <c r="W978" s="3"/>
-      <c r="X978" s="3"/>
-    </row>
-    <row r="979" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A979" s="3"/>
-      <c r="B979" s="3"/>
-      <c r="C979" s="3"/>
-      <c r="D979" s="3"/>
-      <c r="E979" s="3"/>
-      <c r="F979" s="3"/>
-      <c r="G979" s="3"/>
-      <c r="H979" s="3"/>
-      <c r="I979" s="3"/>
-      <c r="J979" s="3"/>
-      <c r="K979" s="3"/>
-      <c r="L979" s="3"/>
-      <c r="M979" s="3"/>
-      <c r="N979" s="3"/>
-      <c r="O979" s="3"/>
-      <c r="P979" s="3"/>
-      <c r="Q979" s="3"/>
-      <c r="R979" s="3"/>
-      <c r="S979" s="3"/>
-      <c r="T979" s="3"/>
-      <c r="U979" s="3"/>
-      <c r="V979" s="3"/>
-      <c r="W979" s="3"/>
-      <c r="X979" s="3"/>
-    </row>
-    <row r="980" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A980" s="3"/>
-      <c r="B980" s="3"/>
-      <c r="C980" s="3"/>
-      <c r="D980" s="3"/>
-      <c r="E980" s="3"/>
-      <c r="F980" s="3"/>
-      <c r="G980" s="3"/>
-      <c r="H980" s="3"/>
-      <c r="I980" s="3"/>
-      <c r="J980" s="3"/>
-      <c r="K980" s="3"/>
-      <c r="L980" s="3"/>
-      <c r="M980" s="3"/>
-      <c r="N980" s="3"/>
-      <c r="O980" s="3"/>
-      <c r="P980" s="3"/>
-      <c r="Q980" s="3"/>
-      <c r="R980" s="3"/>
-      <c r="S980" s="3"/>
-      <c r="T980" s="3"/>
-      <c r="U980" s="3"/>
-      <c r="V980" s="3"/>
-      <c r="W980" s="3"/>
-      <c r="X980" s="3"/>
-    </row>
-    <row r="981" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A981" s="3"/>
-      <c r="B981" s="3"/>
-      <c r="C981" s="3"/>
-      <c r="D981" s="3"/>
-      <c r="E981" s="3"/>
-      <c r="F981" s="3"/>
-      <c r="G981" s="3"/>
-      <c r="H981" s="3"/>
-      <c r="I981" s="3"/>
-      <c r="J981" s="3"/>
-      <c r="K981" s="3"/>
-      <c r="L981" s="3"/>
-      <c r="M981" s="3"/>
-      <c r="N981" s="3"/>
-      <c r="O981" s="3"/>
-      <c r="P981" s="3"/>
-      <c r="Q981" s="3"/>
-      <c r="R981" s="3"/>
-      <c r="S981" s="3"/>
-      <c r="T981" s="3"/>
-      <c r="U981" s="3"/>
-      <c r="V981" s="3"/>
-      <c r="W981" s="3"/>
-      <c r="X981" s="3"/>
-    </row>
-    <row r="982" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A982" s="3"/>
-      <c r="B982" s="3"/>
-      <c r="C982" s="3"/>
-      <c r="D982" s="3"/>
-      <c r="E982" s="3"/>
-      <c r="F982" s="3"/>
-      <c r="G982" s="3"/>
-      <c r="H982" s="3"/>
-      <c r="I982" s="3"/>
-      <c r="J982" s="3"/>
-      <c r="K982" s="3"/>
-      <c r="L982" s="3"/>
-      <c r="M982" s="3"/>
-      <c r="N982" s="3"/>
-      <c r="O982" s="3"/>
-      <c r="P982" s="3"/>
-      <c r="Q982" s="3"/>
-      <c r="R982" s="3"/>
-      <c r="S982" s="3"/>
-      <c r="T982" s="3"/>
-      <c r="U982" s="3"/>
-      <c r="V982" s="3"/>
-      <c r="W982" s="3"/>
-      <c r="X982" s="3"/>
-    </row>
-    <row r="983" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A983" s="3"/>
-      <c r="B983" s="3"/>
-      <c r="C983" s="3"/>
-      <c r="D983" s="3"/>
-      <c r="E983" s="3"/>
-      <c r="F983" s="3"/>
-      <c r="G983" s="3"/>
-      <c r="H983" s="3"/>
-      <c r="I983" s="3"/>
-      <c r="J983" s="3"/>
-      <c r="K983" s="3"/>
-      <c r="L983" s="3"/>
-      <c r="M983" s="3"/>
-      <c r="N983" s="3"/>
-      <c r="O983" s="3"/>
-      <c r="P983" s="3"/>
-      <c r="Q983" s="3"/>
-      <c r="R983" s="3"/>
-      <c r="S983" s="3"/>
-      <c r="T983" s="3"/>
-      <c r="U983" s="3"/>
-      <c r="V983" s="3"/>
-      <c r="W983" s="3"/>
-      <c r="X983" s="3"/>
-    </row>
-    <row r="984" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A984" s="3"/>
-      <c r="B984" s="3"/>
-      <c r="C984" s="3"/>
-      <c r="D984" s="3"/>
-      <c r="E984" s="3"/>
-      <c r="F984" s="3"/>
-      <c r="G984" s="3"/>
-      <c r="H984" s="3"/>
-      <c r="I984" s="3"/>
-      <c r="J984" s="3"/>
-      <c r="K984" s="3"/>
-      <c r="L984" s="3"/>
-      <c r="M984" s="3"/>
-      <c r="N984" s="3"/>
-      <c r="O984" s="3"/>
-      <c r="P984" s="3"/>
-      <c r="Q984" s="3"/>
-      <c r="R984" s="3"/>
-      <c r="S984" s="3"/>
-      <c r="T984" s="3"/>
-      <c r="U984" s="3"/>
-      <c r="V984" s="3"/>
-      <c r="W984" s="3"/>
-      <c r="X984" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
